--- a/results/mp/tinybert/dilemma/confidence/42/stop-words-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/42/stop-words-0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,6 +40,12 @@
     <t>name</t>
   </si>
   <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>creepy</t>
+  </si>
+  <si>
     <t>worst</t>
   </si>
   <si>
@@ -49,48 +55,33 @@
     <t>terrifying</t>
   </si>
   <si>
-    <t>evil</t>
-  </si>
-  <si>
     <t>illegal</t>
   </si>
   <si>
-    <t>creepy</t>
-  </si>
-  <si>
     <t>dangerous</t>
   </si>
   <si>
-    <t>wrong</t>
-  </si>
-  <si>
     <t>addicted</t>
   </si>
   <si>
-    <t>fucking</t>
+    <t>disturbing</t>
+  </si>
+  <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>shit</t>
   </si>
   <si>
     <t>scary</t>
   </si>
   <si>
-    <t>hate</t>
+    <t>crazy</t>
   </si>
   <si>
     <t>seriously</t>
   </si>
   <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>behind</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>dark</t>
-  </si>
-  <si>
     <t>bad</t>
   </si>
   <si>
@@ -115,19 +106,22 @@
     <t>interesting</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>powerful</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>love</t>
+  </si>
+  <si>
+    <t>many</t>
   </si>
   <si>
     <t>social</t>
@@ -494,7 +488,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q21"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -502,10 +496,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -563,13 +557,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -581,19 +575,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -605,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -613,13 +607,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9333333333333333</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -631,10 +625,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K4">
         <v>0.9090909090909091</v>
@@ -663,13 +657,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9242424242424242</v>
+        <v>0.9666666666666667</v>
       </c>
       <c r="C5">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -681,19 +675,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K5">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="L5">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M5">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -705,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -713,13 +707,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9230769230769231</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C6">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D6">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -734,16 +728,16 @@
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K6">
-        <v>0.8666666666666667</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L6">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M6">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -755,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -763,13 +757,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9134615384615384</v>
+        <v>0.9242424242424242</v>
       </c>
       <c r="C7">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="D7">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -781,19 +775,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K7">
-        <v>0.7017543859649122</v>
+        <v>0.7192982456140351</v>
       </c>
       <c r="L7">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M7">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -805,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -813,13 +807,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9090909090909091</v>
+        <v>0.9134615384615384</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -831,19 +825,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K8">
-        <v>0.5</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="L8">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="M8">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -863,13 +857,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7894736842105263</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C9">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D9">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -881,31 +875,31 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9">
+        <v>0.5466666666666666</v>
+      </c>
+      <c r="L9">
+        <v>41</v>
+      </c>
+      <c r="M9">
+        <v>41</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
         <v>34</v>
-      </c>
-      <c r="K9">
-        <v>0.5</v>
-      </c>
-      <c r="L9">
-        <v>30</v>
-      </c>
-      <c r="M9">
-        <v>30</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -913,13 +907,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6470588235294118</v>
+        <v>0.675</v>
       </c>
       <c r="C10">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="D10">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -931,19 +925,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K10">
-        <v>0.4736842105263158</v>
+        <v>0.5</v>
       </c>
       <c r="L10">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="M10">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -955,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -966,10 +960,10 @@
         <v>0.625</v>
       </c>
       <c r="C11">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D11">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -981,19 +975,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K11">
-        <v>0.4666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="L11">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="M11">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1005,7 +999,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>40</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1013,13 +1007,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.625</v>
+        <v>0.55</v>
       </c>
       <c r="C12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1031,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K12">
-        <v>0.4482758620689655</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="L12">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M12">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1063,13 +1057,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5289855072463768</v>
+        <v>0.4680851063829787</v>
       </c>
       <c r="C13">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="D13">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1081,19 +1075,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K13">
-        <v>0.075591985428051</v>
+        <v>0.2195121951219512</v>
       </c>
       <c r="L13">
-        <v>83</v>
+        <v>9</v>
       </c>
       <c r="M13">
-        <v>83</v>
+        <v>9</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1105,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>1015</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1113,13 +1107,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="C14">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="D14">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1131,19 +1125,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K14">
-        <v>0.02710843373493976</v>
+        <v>0.075591985428051</v>
       </c>
       <c r="L14">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="M14">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1155,7 +1149,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>646</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1163,13 +1157,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4642857142857143</v>
+        <v>0.4</v>
       </c>
       <c r="C15">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D15">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1181,7 +1175,31 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K15">
+        <v>0.01506024096385542</v>
+      </c>
+      <c r="L15">
+        <v>10</v>
+      </c>
+      <c r="M15">
+        <v>10</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>654</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1189,13 +1207,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4571428571428571</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="C16">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D16">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1207,7 +1225,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1215,13 +1233,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4230769230769231</v>
+        <v>0.2564102564102564</v>
       </c>
       <c r="C17">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D17">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1233,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1241,13 +1259,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3829787234042553</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="C18">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D18">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1259,85 +1277,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19">
-        <v>0.3214285714285715</v>
-      </c>
-      <c r="C19">
-        <v>9</v>
-      </c>
-      <c r="D19">
-        <v>9</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20">
-        <v>0.3076923076923077</v>
-      </c>
-      <c r="C20">
-        <v>12</v>
-      </c>
-      <c r="D20">
-        <v>12</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21">
-        <v>0.1794871794871795</v>
-      </c>
-      <c r="C21">
-        <v>14</v>
-      </c>
-      <c r="D21">
-        <v>14</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
